--- a/academias/Física - Estadisticos 2020.xlsx
+++ b/academias/Física - Estadisticos 2020.xlsx
@@ -482,6 +482,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1128,6 +1129,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1723,6 +1725,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Física - Estadisticos 2020.xlsx
+++ b/academias/Física - Estadisticos 2020.xlsx
@@ -534,25 +534,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>41.67</v>
+        <v>22.22</v>
       </c>
       <c r="I2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>41.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -569,25 +569,25 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H3">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>22.73</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -604,25 +604,25 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>69.23</v>
+        <v>73.08</v>
       </c>
       <c r="H4">
-        <v>30.77</v>
+        <v>26.92</v>
       </c>
       <c r="I4">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>30.77</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -639,25 +639,25 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>62.07</v>
+        <v>65.52</v>
       </c>
       <c r="H5">
-        <v>37.93</v>
+        <v>34.48</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>37.93</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -954,25 +954,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>10.34</v>
+        <v>37.93</v>
       </c>
       <c r="H14">
-        <v>89.66</v>
+        <v>62.07</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="J14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>89.66</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -989,25 +989,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>21.05</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>78.95</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>78.95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1024,25 +1024,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>25.64</v>
+        <v>41.03</v>
       </c>
       <c r="H16">
-        <v>74.36</v>
+        <v>58.97</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>74.36</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1059,25 +1059,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>14.29</v>
+        <v>47.62</v>
       </c>
       <c r="H17">
-        <v>85.70999999999999</v>
+        <v>52.38</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>85.70999999999999</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1094,25 +1094,25 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>22.73</v>
+        <v>59.09</v>
       </c>
       <c r="H18">
-        <v>77.27</v>
+        <v>40.91</v>
       </c>
       <c r="I18">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>77.27</v>
+        <v>40.91</v>
       </c>
     </row>
   </sheetData>
@@ -1181,22 +1181,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I2">
+        <v>6.6</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1213,22 +1216,25 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>45.45</v>
+      </c>
+      <c r="I3">
+        <v>5.9</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1245,22 +1251,25 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.23</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>30.77</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1277,22 +1286,25 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>58.62</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>41.38</v>
+      </c>
+      <c r="I5">
+        <v>6.8</v>
       </c>
       <c r="J5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1565,22 +1577,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>86.20999999999999</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>86.20999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1597,22 +1612,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>36.84</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>63.16</v>
+      </c>
+      <c r="I15">
+        <v>8.800000000000001</v>
       </c>
       <c r="J15">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1629,22 +1647,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="I16">
+        <v>7.6</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1661,22 +1682,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>85.70999999999999</v>
+      </c>
+      <c r="I17">
+        <v>6.3</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1693,22 +1717,25 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>68.18000000000001</v>
+      </c>
+      <c r="I18">
+        <v>8.300000000000001</v>
       </c>
       <c r="J18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1777,25 +1804,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>41.67</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>41.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1812,25 +1839,25 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>68.18000000000001</v>
+        <v>59.09</v>
       </c>
       <c r="H3">
-        <v>31.82</v>
+        <v>40.91</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>22.73</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1859,13 +1886,13 @@
         <v>30.77</v>
       </c>
       <c r="I4">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>30.77</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1894,13 +1921,13 @@
         <v>37.93</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>37.93</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2197,25 +2224,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>10.34</v>
+        <v>37.93</v>
       </c>
       <c r="H14">
-        <v>89.66</v>
+        <v>62.07</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>89.66</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2232,25 +2259,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>21.05</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>78.95</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>78.95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2267,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>25.64</v>
+        <v>41.03</v>
       </c>
       <c r="H16">
-        <v>74.36</v>
+        <v>58.97</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>74.36</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2302,25 +2329,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>14.29</v>
+        <v>47.62</v>
       </c>
       <c r="H17">
-        <v>85.70999999999999</v>
+        <v>52.38</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>85.70999999999999</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2337,25 +2364,25 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>22.73</v>
+        <v>59.09</v>
       </c>
       <c r="H18">
-        <v>77.27</v>
+        <v>40.91</v>
       </c>
       <c r="I18">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>77.27</v>
+        <v>40.91</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Física - Estadisticos 2020.xlsx
+++ b/academias/Física - Estadisticos 2020.xlsx
@@ -581,13 +581,13 @@
         <v>27.27</v>
       </c>
       <c r="I3">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -616,13 +616,13 @@
         <v>26.92</v>
       </c>
       <c r="I4">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,13 +651,13 @@
         <v>34.48</v>
       </c>
       <c r="I5">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>20.69</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -884,25 +884,25 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H12">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
       <c r="I12">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1181,25 +1181,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>72.22</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>27.78</v>
+        <v>22.22</v>
       </c>
       <c r="I2">
         <v>6.6</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1286,25 +1286,25 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>58.62</v>
+        <v>62.07</v>
       </c>
       <c r="H5">
-        <v>41.38</v>
+        <v>37.93</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>34.48</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1804,19 +1804,19 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="I2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1851,13 +1851,13 @@
         <v>40.91</v>
       </c>
       <c r="I3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1886,13 +1886,13 @@
         <v>30.77</v>
       </c>
       <c r="I4">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1921,13 +1921,13 @@
         <v>37.93</v>
       </c>
       <c r="I5">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>20.69</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2154,25 +2154,25 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H12">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
       <c r="I12">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/academias/Física - Estadisticos 2020.xlsx
+++ b/academias/Física - Estadisticos 2020.xlsx
@@ -744,25 +744,25 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>70.83</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>29.17</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>20.83</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -919,25 +919,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="I13">
         <v>7.7</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1321,22 +1321,25 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>28.21</v>
+      </c>
+      <c r="I6">
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1353,22 +1356,25 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>78.38</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>21.62</v>
+      </c>
+      <c r="I7">
+        <v>8.800000000000001</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1385,22 +1391,25 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>8.699999999999999</v>
       </c>
       <c r="J8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1417,22 +1426,25 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>45.95</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>54.05</v>
+      </c>
+      <c r="I9">
+        <v>7.7</v>
       </c>
       <c r="J9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1449,22 +1461,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I10">
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1481,22 +1496,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>47.06</v>
+      </c>
+      <c r="I11">
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1513,22 +1531,25 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>57.14</v>
+      </c>
+      <c r="I12">
+        <v>7.1</v>
       </c>
       <c r="J12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1545,22 +1566,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>30.56</v>
+      </c>
+      <c r="I13">
+        <v>8.4</v>
       </c>
       <c r="J13">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1944,19 +1968,19 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="H6">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
       <c r="I6">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1991,7 +2015,7 @@
         <v>21.62</v>
       </c>
       <c r="I7">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2014,25 +2038,25 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>70.83</v>
+        <v>83.33</v>
       </c>
       <c r="H8">
-        <v>29.17</v>
+        <v>16.67</v>
       </c>
       <c r="I8">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>20.83</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2061,7 +2085,7 @@
         <v>45.95</v>
       </c>
       <c r="I9">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -2084,19 +2108,19 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>57.58</v>
+        <v>69.7</v>
       </c>
       <c r="H10">
-        <v>42.42</v>
+        <v>30.3</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -2119,19 +2143,19 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>55.88</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H11">
-        <v>44.12</v>
+        <v>35.29</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -2189,25 +2213,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="I13">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="14" spans="1:11">

--- a/academias/Física - Estadisticos 2020.xlsx
+++ b/academias/Física - Estadisticos 2020.xlsx
@@ -51,7 +51,7 @@
     <t>Por_Blan</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>González Sánchez Rene Aurelio</t>
@@ -1403,7 +1403,7 @@
         <v>25</v>
       </c>
       <c r="I8">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>16.67</v>
       </c>
       <c r="I8">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
         <v>2</v>
